--- a/biology/Médecine/Adénome/Adénome.xlsx
+++ b/biology/Médecine/Adénome/Adénome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nome</t>
+          <t>Adénome</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un adénome est une tumeur bénigne pouvant affecter une glande ou bien une muqueuse.
 Toutes les glandes peuvent être atteintes : glande endocrine à sécrétion hormonale interne comme la thyroïde ou l'hypophyse, glande à sécrétion externe comme le sein, la prostate ou les glandes sébacées de la peau, ou encore une muqueuse comme celle du tube digestif (dans ce cas, on parle plus précisément de polypes adénomateux).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nome</t>
+          <t>Adénome</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Adénome digestif
 Adénome gastrique : adénome fundique, adénome antral
